--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4481,7 +4484,7 @@
         <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4557,10 +4560,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4611,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4629,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4669,10 +4672,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4716,7 +4719,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4728,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4743,7 +4746,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4757,7 +4760,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4780,19 +4783,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4841,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4862,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,10 +4902,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4953,7 +4956,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4971,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5011,10 +5014,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5058,7 +5061,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5067,7 +5070,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5085,7 +5088,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5125,16 +5128,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5186,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5201,13 +5204,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,13 +5244,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5297,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5315,13 +5318,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5355,14 +5358,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5411,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5429,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,14 +5472,14 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5543,13 +5546,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5580,19 +5583,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5641,7 +5644,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5659,13 +5662,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,16 +5702,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5757,7 +5760,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5778,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5792,7 +5795,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5814,7 +5817,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5905,7 +5908,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5928,16 +5931,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5987,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6002,16 +6005,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,10 +6048,10 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6099,7 +6102,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6117,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6134,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6157,10 +6160,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6204,7 +6207,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6213,7 +6216,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6231,7 +6234,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,13 +6274,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6327,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6339,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6385,13 +6388,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6417,13 +6420,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6441,7 +6444,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6499,13 +6502,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6555,7 +6558,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6573,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,13 +6616,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6669,7 +6672,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6724,16 +6727,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6783,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6798,16 +6801,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6838,16 +6841,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6897,7 +6900,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6915,10 +6918,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6929,7 +6932,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6952,16 +6955,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7011,7 +7014,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7026,16 +7029,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7046,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7066,13 +7069,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7123,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7138,16 +7141,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,10 +7184,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7235,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7293,10 +7296,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7349,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7367,7 +7370,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7381,11 +7384,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7407,10 +7410,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7465,7 +7468,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7523,10 +7526,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7556,10 +7559,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7577,7 +7580,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7592,10 +7595,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7632,13 +7635,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7689,7 +7692,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7704,10 +7707,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7721,7 +7724,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7747,10 +7750,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7780,10 +7783,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7801,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7816,16 +7819,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7833,7 +7836,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7856,16 +7859,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7915,7 +7918,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7930,24 +7933,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7970,19 +7973,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8031,7 +8034,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8046,16 +8049,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8086,16 +8089,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8145,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8163,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8180,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8200,16 +8203,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8259,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8274,10 +8277,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8291,7 +8294,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8314,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8371,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8383,13 +8386,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,10 +8432,10 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8483,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8501,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8515,7 +8518,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8541,10 +8544,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8597,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8615,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8629,11 +8632,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8655,10 +8658,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8713,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8748,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,10 +8774,10 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8825,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8843,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8857,7 +8860,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8883,13 +8886,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8918,10 +8921,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8939,7 +8942,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8957,13 +8960,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8997,10 +9000,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9032,10 +9035,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9053,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9071,13 +9074,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9085,7 +9088,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9111,13 +9114,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9146,10 +9149,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9167,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9185,13 +9188,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9222,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9281,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9299,13 +9302,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,10 +9342,10 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9393,7 +9396,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9411,7 +9414,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9425,7 +9428,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9451,10 +9454,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9498,7 +9501,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9507,7 +9510,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9525,7 +9528,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9562,19 +9565,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9623,7 +9626,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9641,13 +9644,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9681,20 +9684,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9718,10 +9721,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9757,13 +9760,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,14 +9800,14 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9871,13 +9874,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9911,14 +9914,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9967,7 +9970,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9976,7 +9979,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9985,13 +9988,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10025,16 +10028,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10081,7 +10084,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10099,13 +10102,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10136,16 +10139,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10195,7 +10198,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10213,13 +10216,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10250,16 +10253,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10309,7 +10312,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10327,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
